--- a/Statistical analyses/Tukey posthoc/NAG/Vmax, Precip.xlsx
+++ b/Statistical analyses/Tukey posthoc/NAG/Vmax, Precip.xlsx
@@ -14,12 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t xml:space="preserve">group1 group2 meandiff p-adj lower upper reject </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ambient Reduced 0.1209 0.326 -0.1232 0.3651 False </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>group1</t>
+  </si>
+  <si>
+    <t>group2</t>
+  </si>
+  <si>
+    <t>meandiff</t>
+  </si>
+  <si>
+    <t>p-adj</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>reject</t>
+  </si>
+  <si>
+    <t>Ambient</t>
+  </si>
+  <si>
+    <t>Reduced</t>
   </si>
 </sst>
 </file>
@@ -377,20 +398,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0.1209</v>
+      </c>
+      <c r="D2">
+        <v>0.326</v>
+      </c>
+      <c r="E2">
+        <v>-0.1232</v>
+      </c>
+      <c r="F2">
+        <v>0.3651</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
